--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732401.23227749</v>
+        <v>2836580.866728561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8783090.98388814</v>
+        <v>8783090.983888142</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.91534106849895</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>79.51002581503394</v>
+        <v>26.1045791064279</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>50.04052206184424</v>
       </c>
       <c r="V5" t="n">
-        <v>48.52634901049048</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>197.9267041219438</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>122.533954060358</v>
       </c>
       <c r="D8" t="n">
-        <v>69.17447067454405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>41.82801112972236</v>
+        <v>164.9074167248918</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>79.70119244397701</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>33.26272630933957</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3771414330733</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>121.6256473075354</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.3193898991453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>21.85677025083604</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>7.155999212081953</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.47207866589218</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.458642397731778</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U31" t="n">
-        <v>230.4433519268053</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>21.69718571885186</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>107.1685137621098</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3712,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>143.2091541404069</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>32.57570591153918</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>88.27810958517536</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>31.39650288673297</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519461</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.854689248206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
         <v>1232.150970528558</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,7 +4342,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.6720730524786</v>
+        <v>460.171619808316</v>
       </c>
       <c r="C4" t="n">
-        <v>509.7358901245717</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1846.98139069957</v>
+        <v>1900.926286364828</v>
       </c>
       <c r="S4" t="n">
-        <v>1846.98139069957</v>
+        <v>1709.240402191655</v>
       </c>
       <c r="T4" t="n">
-        <v>1625.214775269096</v>
+        <v>1487.473786761181</v>
       </c>
       <c r="U4" t="n">
-        <v>1625.214775269096</v>
+        <v>1198.370919886824</v>
       </c>
       <c r="V4" t="n">
-        <v>1370.530287063209</v>
+        <v>1198.370919886824</v>
       </c>
       <c r="W4" t="n">
-        <v>1081.113117026248</v>
+        <v>908.9537498498635</v>
       </c>
       <c r="X4" t="n">
-        <v>1081.113117026248</v>
+        <v>680.9641989518461</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.3205378827183</v>
+        <v>460.171619808316</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4589,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="V5" t="n">
-        <v>2706.790414642315</v>
+        <v>3164.769171255616</v>
       </c>
       <c r="W5" t="n">
-        <v>2354.0217593722</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.556001111121</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.416669135309</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4728,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1535.68270015578</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1535.68270015578</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1535.68270015578</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1246.26553011882</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1018.275979220802</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>797.4834000772721</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.778044008243</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C8" t="n">
-        <v>1645.815527067831</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
         <v>1190.154071768027</v>
@@ -4796,34 +4798,34 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008243</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062804</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1573.446959122898</v>
+        <v>1257.438443035412</v>
       </c>
       <c r="V10" t="n">
-        <v>1318.762470917011</v>
+        <v>1002.753954829525</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.34530088005</v>
+        <v>1002.753954829525</v>
       </c>
       <c r="X10" t="n">
-        <v>1029.34530088005</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="Y10" t="n">
-        <v>808.5527217365201</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,31 +5029,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,16 +5074,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5233,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5258,55 +5260,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5380889459582</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>618.4214495336224</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>618.4214495336224</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>471.531502035712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561823</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.204351886422</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5755,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5789,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311989</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6918836311989</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5950,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614387</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5969,40 +5971,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797136</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192544</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6206,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,31 +6244,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>954.2476448606602</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>785.3114619327533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>635.1948225204176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1135.8961096909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3033.629298638937</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>2864.69311571103</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>2714.576476298694</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>2566.663382716301</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4440.9326143059</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U31" t="n">
-        <v>4208.161551753571</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>3953.477063547684</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>3664.059893510724</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>3436.070342612707</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>3215.277763469177</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129205</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>3473.939263755757</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4664.499349931602</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4481.644515586507</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4262.043050609448</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W34" t="n">
-        <v>1411.785016437858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X34" t="n">
-        <v>1183.79546553984</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.0028863963103</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,16 +7016,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
         <v>1540.888753373307</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2271.666355830532</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2052.064890853473</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1762.98966419767</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7169,28 +7171,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4296.276903052963</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4296.276903052963</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4041.592414847077</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3752.175244810116</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3524.185693912098</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,10 +7447,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7491,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2165.348906208039</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1876.273679552237</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1621.58919134635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>2940.5785039035</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>2771.642320975594</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>2621.525681563258</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>3343.01954787727</v>
       </c>
       <c r="Y46" t="n">
-        <v>3260.450525729772</v>
+        <v>3122.22696873374</v>
       </c>
     </row>
   </sheetData>
@@ -23425,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>206.821805892614</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>146.5692538725977</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>13.14699685919558</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.26526345294951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.7587027673763</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>218.5536561769552</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>147.3599015160451</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>142.9753202488374</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="29">
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U31" t="n">
-        <v>55.7411224624388</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>40.30478226780053</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>264.8258126177391</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>73.85777223953482</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>74.19629618688137</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>186.0089474405556</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>60.337363433037</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>106.0841272570742</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.72996410388876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>756369.7081534526</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
@@ -26326,34 +26328,34 @@
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813242</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26436,10 +26438,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090849</v>
+        <v>-849063.3492090848</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.396518508</v>
+        <v>479681.3965185077</v>
       </c>
       <c r="D6" t="n">
-        <v>479681.396518508</v>
+        <v>479681.3965185077</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262114</v>
+        <v>228803.8648262112</v>
       </c>
       <c r="F6" t="n">
+        <v>554216.3266335664</v>
+      </c>
+      <c r="G6" t="n">
+        <v>554216.3266335666</v>
+      </c>
+      <c r="H6" t="n">
         <v>554216.3266335665</v>
       </c>
-      <c r="G6" t="n">
-        <v>554216.3266335665</v>
-      </c>
-      <c r="H6" t="n">
-        <v>554216.3266335666</v>
-      </c>
       <c r="I6" t="n">
-        <v>554216.3266335668</v>
+        <v>554216.3266335663</v>
       </c>
       <c r="J6" t="n">
-        <v>336685.1242362889</v>
+        <v>336685.1242362888</v>
       </c>
       <c r="K6" t="n">
         <v>554216.3266335666</v>
       </c>
       <c r="L6" t="n">
-        <v>554216.3266335668</v>
+        <v>554216.3266335665</v>
       </c>
       <c r="M6" t="n">
-        <v>469161.2986980547</v>
+        <v>469161.2986980545</v>
       </c>
       <c r="N6" t="n">
+        <v>554216.3266335666</v>
+      </c>
+      <c r="O6" t="n">
+        <v>554216.3266335664</v>
+      </c>
+      <c r="P6" t="n">
         <v>554216.3266335665</v>
-      </c>
-      <c r="O6" t="n">
-        <v>554216.3266335665</v>
-      </c>
-      <c r="P6" t="n">
-        <v>554216.3266335666</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>302.8185005949816</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>9.422126855013374</v>
+        <v>62.82757356361943</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>200.9546498970577</v>
       </c>
       <c r="V5" t="n">
-        <v>279.2259094596444</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>21.62224515422542</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>242.7389377106496</v>
       </c>
       <c r="D8" t="n">
-        <v>285.5085709461389</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>244.3838270758905</v>
+        <v>121.3044214807211</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>468.9317632522997</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.6878763515704</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32557,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>500.4415752611932</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32786,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>755.4040473746018</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>150.2061940096332</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>431.9220107744075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>375.1407109807897</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>330.3773834724255</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.09163190712597</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36205,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367781</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>624.0623352912685</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>18.86448192629984</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>293.3676309945333</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>243.7989988974564</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,16 +37624,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2836580.866728561</v>
+        <v>2832568.256714571</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8783090.983888142</v>
+        <v>8783090.98388814</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>281.8418017252669</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.74247635996084</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>26.1045791064279</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>50.04052206184424</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>122.533954060358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>261.2824032917163</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>4.043187116398963</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>164.9074167248918</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>175.8265476954863</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>79.70119244397701</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.26272630933957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>121.6256473075354</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>7.155999212081953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.07046444232116</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.57570591153918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>88.27810958517536</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.44001103519461</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460.171619808316</v>
+        <v>985.2668805437596</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>816.3306976158527</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>666.214058203517</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>518.3009646211239</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>371.4110171232135</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1900.926286364828</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1709.240402191655</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1487.473786761181</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1198.370919886824</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V4" t="n">
-        <v>1198.370919886824</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W4" t="n">
-        <v>908.9537498498635</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="X4" t="n">
-        <v>680.9641989518461</v>
+        <v>1387.707924517529</v>
       </c>
       <c r="Y4" t="n">
-        <v>460.171619808316</v>
+        <v>1166.915345373999</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3164.769171255616</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3164.769171255616</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142816</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1548.419770374778</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142816</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>684.4520072430315</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>515.5158243151246</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>365.3991849027889</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>217.4860913203958</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>70.5961438224854</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.438443035412</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1002.753954829525</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1002.753954829525</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>774.7644039315074</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>774.7644039315074</v>
+        <v>866.1004720732712</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5202,10 +5202,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1353.195110654903</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,28 +5512,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>923.4916164683283</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>754.5554335404214</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2237.774446768174</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>2018.172981791115</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4664.499349931602</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4481.644515586507</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4262.043050609448</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3972.967823953646</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3972.967823953646</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953646</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2940.5785039035</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2771.642320975594</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2621.525681563258</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>2621.525681563258</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>2621.525681563258</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-4.365407234347674e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>4.005432486451042</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.821805892614</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.5692538725977</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>24.80831533903373</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>145.6085800303771</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>218.5536561769552</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>40.3047822678005</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.30478226780053</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.0089474405556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>60.337363433037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>106.0841272570742</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,7 +26432,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090848</v>
+        <v>-849063.3492090845</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.3965185077</v>
+        <v>479681.3965185081</v>
       </c>
       <c r="D6" t="n">
         <v>479681.3965185077</v>
       </c>
       <c r="E6" t="n">
-        <v>228803.8648262112</v>
+        <v>228456.4855718548</v>
       </c>
       <c r="F6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792095</v>
       </c>
       <c r="G6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="H6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792098</v>
       </c>
       <c r="I6" t="n">
-        <v>554216.3266335663</v>
+        <v>553868.9473792103</v>
       </c>
       <c r="J6" t="n">
-        <v>336685.1242362888</v>
+        <v>336337.7449819323</v>
       </c>
       <c r="K6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792096</v>
       </c>
       <c r="L6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="M6" t="n">
-        <v>469161.2986980545</v>
+        <v>468813.919443698</v>
       </c>
       <c r="N6" t="n">
-        <v>554216.3266335666</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="O6" t="n">
-        <v>554216.3266335664</v>
+        <v>553868.9473792097</v>
       </c>
       <c r="P6" t="n">
-        <v>554216.3266335665</v>
+        <v>553868.9473792097</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>100.0885683469949</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>105.2833318990674</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.82757356361943</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>200.9546498970577</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>242.7389377106496</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>108.4486973867527</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>92.30923329343912</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>121.3044214807211</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>533.6019216797993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34447,13 +34447,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>211.7351844430274</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>395.0475418999251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>73.18080466315317</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2832568.256714571</v>
+        <v>2834328.787017356</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,10 +667,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>281.8418017252669</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>289.4771678259133</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>60.74247635996084</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>135.8241034250915</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.8791992932337</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>94.81275980261576</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734129911</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.6703719699171</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>71.67037196991795</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>333.1282323861738</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>261.2824032917163</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4.043187116398963</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>193.902604912174</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>175.8265476954863</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0551722706137</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282041</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S22" t="n">
-        <v>35.41770597126747</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881312</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>26.07046444232116</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>78.91051008678096</v>
+        <v>177.6965697803355</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>122.602876259996</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>90.14863908058177</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.602876259996</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1904.487375535337</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C2" t="n">
-        <v>1535.524858594926</v>
+        <v>1132.251444816072</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.259159988175</v>
+        <v>773.9857462093216</v>
       </c>
       <c r="E2" t="n">
-        <v>892.5704713767946</v>
+        <v>773.9857462093216</v>
       </c>
       <c r="F2" t="n">
         <v>481.5845665871869</v>
@@ -4336,7 +4336,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4372,10 +4372,10 @@
         <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535337</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064755</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080134</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4479,10 +4479,10 @@
         <v>371.4110171232135</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>203.7081804979324</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1517.887535471219</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1517.887535471219</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1517.887535471219</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4558,19 +4558,19 @@
         <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609174</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136269</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410105</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066535</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.95313379642</v>
       </c>
       <c r="X5" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535341</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215814</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>752.7622949738588</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>583.826112045952</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>433.7094726336162</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>285.7963790512231</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533127</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533127</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533127</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218348</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.181730276492</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760412</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088494</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882607</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947629</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040986</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C10" t="n">
-        <v>515.5158243151246</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3991849027889</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4860913203958</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5961438224854</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>70.5961438224854</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>70.5961438224854</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1731.433331005489</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1476.748842799602</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1187.331672762641</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>959.3421218646239</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3568999154069</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="14">
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5509,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,25 +5767,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2411.187623003223</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6244,31 +6244,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6393,7 +6393,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570818</v>
@@ -6402,13 +6402,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487568</v>
@@ -6426,10 +6426,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452603</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2237.774446768174</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.172981791115</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,7 +6876,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
         <v>484.8112968429802</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,13 +7350,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450264</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326907</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.5643764502976</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>408.6744289523872</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,19 +7736,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>691.195150674524</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2527.587654338369</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-3.255978819893812e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.365407234347674e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-2.091670479915353e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-4.933841422955754e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.005432486451042</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>61.35027805667454</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S22" t="n">
-        <v>145.6085800303771</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>40.3047822678005</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405073</v>
+        <v>39.7088805469528</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>75.37549921168707</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>769222.7405646594</v>
+        <v>769222.7405646592</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756369.708153453</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>756369.7081534528</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.708153453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756369.7081534527</v>
+        <v>756369.7081534528</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.944744255</v>
-      </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442549</v>
@@ -26349,10 +26349,10 @@
         <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26368,16 +26368,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8.41514078729233e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1.767800767993322e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813229</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="H4" t="n">
         <v>10557.08828678121</v>
@@ -26441,19 +26441,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678109</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678112</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678116</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26472,7 +26472,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26493,13 +26493,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849063.3492090845</v>
+        <v>-849063.3492090844</v>
       </c>
       <c r="C6" t="n">
-        <v>479681.3965185081</v>
+        <v>479681.3965185075</v>
       </c>
       <c r="D6" t="n">
-        <v>479681.3965185077</v>
+        <v>479681.3965185086</v>
       </c>
       <c r="E6" t="n">
-        <v>228456.4855718548</v>
+        <v>228769.1269007759</v>
       </c>
       <c r="F6" t="n">
-        <v>553868.9473792095</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="G6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="H6" t="n">
-        <v>553868.9473792098</v>
+        <v>554181.5887081306</v>
       </c>
       <c r="I6" t="n">
-        <v>553868.9473792103</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="J6" t="n">
-        <v>336337.7449819323</v>
+        <v>336650.3863108534</v>
       </c>
       <c r="K6" t="n">
-        <v>553868.9473792096</v>
+        <v>554181.5887081309</v>
       </c>
       <c r="L6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.588708131</v>
       </c>
       <c r="M6" t="n">
-        <v>468813.919443698</v>
+        <v>469126.5607726193</v>
       </c>
       <c r="N6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081313</v>
       </c>
       <c r="O6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081311</v>
       </c>
       <c r="P6" t="n">
-        <v>553868.9473792097</v>
+        <v>554181.5887081309</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,22 +26792,22 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022934</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27014,7 +27014,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0885683469949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>117.3988779157981</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>105.2833318990674</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8.930911489229288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.05117077902804</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911113</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>21.55480923450915</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>108.4486973867527</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>92.30923329343912</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>92.30923329343892</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-4.335437672890663e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,46 +31436,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982898</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593833</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201433</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>171.4104471179097</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762715</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902938</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795091</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36764,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402692</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>25.73094315394571</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
